--- a/Data/Plus Minus Model/Plus Minus A Lyga 2025.xlsx
+++ b/Data/Plus Minus Model/Plus Minus A Lyga 2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:K207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D2" t="n">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.004893964110929853</v>
+        <v>-0.002861230329041488</v>
       </c>
     </row>
     <row r="3">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.002770083102493075</v>
+        <v>-0.001225490196078431</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
         <v>-3</v>
       </c>
       <c r="D5" t="n">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01595744680851064</v>
+        <v>-0.01063829787234043</v>
       </c>
     </row>
     <row r="6">
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.00911854103343465</v>
       </c>
     </row>
     <row r="7">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007978723404255319</v>
+        <v>0.00591016548463357</v>
       </c>
     </row>
     <row r="9">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001329787234042553</v>
+        <v>0.003546099290780142</v>
       </c>
     </row>
     <row r="10">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0111731843575419</v>
+        <v>0.01025641025641026</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.01408450704225352</v>
       </c>
     </row>
     <row r="12">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01015965166908563</v>
+        <v>0.007662835249042145</v>
       </c>
     </row>
     <row r="13">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D14" t="n">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.007092198581560284</v>
+        <v>-0.007961783439490446</v>
       </c>
     </row>
     <row r="15">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007978723404255319</v>
+        <v>0.00591016548463357</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>-2</v>
       </c>
       <c r="D17" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02222222222222222</v>
+        <v>-0.02127659574468085</v>
       </c>
     </row>
     <row r="18">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003989361702127659</v>
+        <v>-0.001182033096926714</v>
       </c>
     </row>
     <row r="19">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01415094339622642</v>
+        <v>0.01440329218106996</v>
       </c>
     </row>
     <row r="20">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002659574468085106</v>
+        <v>0.001182033096926714</v>
       </c>
     </row>
     <row r="21">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="n">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003333333333333334</v>
+        <v>-0.007614213197969543</v>
       </c>
     </row>
     <row r="22">
@@ -1285,13 +1285,13 @@
         <v>-7</v>
       </c>
       <c r="D22" t="n">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01308411214953271</v>
+        <v>-0.01112877583465819</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1324,7 @@
         <v>-4</v>
       </c>
       <c r="D23" t="n">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01418439716312057</v>
+        <v>-0.01063829787234043</v>
       </c>
     </row>
     <row r="24">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="26">
@@ -1441,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001968503937007874</v>
+        <v>0.001661129568106312</v>
       </c>
     </row>
     <row r="27">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>723</v>
+        <v>817</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005532503457814661</v>
+        <v>0.006119951040391677</v>
       </c>
     </row>
     <row r="28">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002659574468085106</v>
+        <v>0.001182033096926714</v>
       </c>
     </row>
     <row r="29">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.007952286282306162</v>
+        <v>0.005025125628140704</v>
       </c>
     </row>
     <row r="32">
@@ -1672,16 +1672,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.008849557522123894</v>
+        <v>0.009104704097116844</v>
       </c>
     </row>
     <row r="33">
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002659574468085106</v>
+        <v>0.001182033096926714</v>
       </c>
     </row>
     <row r="35">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01092896174863388</v>
+        <v>0.006880733944954129</v>
       </c>
     </row>
     <row r="37">
@@ -1870,10 +1870,10 @@
         <v>-6</v>
       </c>
       <c r="D37" t="n">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01445783132530121</v>
+        <v>-0.01178781925343811</v>
       </c>
     </row>
     <row r="38">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="n">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1924,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.00408997955010225</v>
+        <v>-0.00186219739292365</v>
       </c>
     </row>
     <row r="39">
@@ -1948,7 +1948,7 @@
         <v>-3</v>
       </c>
       <c r="D39" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.006578947368421052</v>
+        <v>-0.00625</v>
       </c>
     </row>
     <row r="40">
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.002659574468085106</v>
+        <v>-0.001182033096926714</v>
       </c>
     </row>
     <row r="42">
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.007978723404255319</v>
+        <v>0.00591016548463357</v>
       </c>
     </row>
     <row r="43">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="n">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-0.00392156862745098</v>
       </c>
     </row>
     <row r="44">
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>642</v>
+        <v>736</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001557632398753894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2182,7 +2182,7 @@
         <v>-3</v>
       </c>
       <c r="D45" t="n">
-        <v>386</v>
+        <v>459</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.007772020725388601</v>
+        <v>-0.006535947712418301</v>
       </c>
     </row>
     <row r="46">
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="n">
-        <v>693</v>
+        <v>787</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.002886002886002886</v>
+        <v>-0.002541296060991106</v>
       </c>
     </row>
     <row r="49">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.001461988304093567</v>
       </c>
     </row>
     <row r="50">
@@ -2374,10 +2374,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.004366812227074236</v>
+        <v>0.005121638924455826</v>
       </c>
     </row>
     <row r="51">
@@ -2494,7 +2494,7 @@
         <v>-1</v>
       </c>
       <c r="D53" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.04</v>
+        <v>-0.02173913043478261</v>
       </c>
     </row>
     <row r="54">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="n">
-        <v>681</v>
+        <v>750</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.004405286343612335</v>
+        <v>-0.002666666666666667</v>
       </c>
     </row>
     <row r="58">
@@ -2686,16 +2686,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01063829787234043</v>
+        <v>0.003546099290780142</v>
       </c>
     </row>
     <row r="59">
@@ -2881,16 +2881,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.05555555555555555</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="64">
@@ -2962,7 +2962,7 @@
         <v>-8</v>
       </c>
       <c r="D65" t="n">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.01162790697674419</v>
+        <v>-0.01023017902813299</v>
       </c>
     </row>
     <row r="66">
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D66" t="n">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.007772020725388601</v>
+        <v>-0.00881057268722467</v>
       </c>
     </row>
     <row r="67">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D68" t="n">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.005649717514124294</v>
+        <v>-0.004842615012106538</v>
       </c>
     </row>
     <row r="69">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.008522727272727272</v>
+        <v>0.004484304932735426</v>
       </c>
     </row>
     <row r="70">
@@ -3154,10 +3154,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D70" t="n">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.005847953216374269</v>
+        <v>-0.006884681583476764</v>
       </c>
     </row>
     <row r="71">
@@ -3235,7 +3235,7 @@
         <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.002915451895043732</v>
+        <v>-0.002724795640326975</v>
       </c>
     </row>
     <row r="73">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="75">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.001730103806228374</v>
       </c>
     </row>
     <row r="76">
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.001329787234042553</v>
+        <v>0.001182033096926714</v>
       </c>
     </row>
     <row r="77">
@@ -3457,25 +3457,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Gratas Sirgėdas</t>
+          <t>Giedrius Zenkevičius</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>686</v>
+        <v>94</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3484,38 +3484,38 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.008746355685131196</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gustas Baliutavičius</t>
+          <t>Gratas Sirgėdas</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>780</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>3</v>
       </c>
-      <c r="D79" t="n">
-        <v>752</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
@@ -3523,31 +3523,31 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.003989361702127659</v>
+        <v>0.00641025641025641</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gustas Gumbaravičius</t>
+          <t>Gustas Baliutavičius</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>846</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3562,37 +3562,37 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.1428571428571428</v>
+        <v>0.004728132387706856</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Gustas Jarusevičius</t>
+          <t>Gustas Gumbaravičius</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="n">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3601,37 +3601,37 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01126760563380282</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gustas Zabita</t>
+          <t>Gustas Jarusevičius</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>564</v>
+        <v>355</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3640,34 +3640,34 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.01418439716312057</v>
+        <v>0.01126760563380282</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Haymenn Bah-Traore</t>
+          <t>Gustas Zabita</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="D83" t="n">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3685,28 +3685,28 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.008658008658008658</v>
+        <v>-0.0121580547112462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Henrique Devens</t>
+          <t>Harouna Abdoul Samad</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3718,37 +3718,37 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.001808318264014466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Henry Uzochukwu</t>
+          <t>Haymenn Bah-Traore</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3757,34 +3757,34 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.001329787234042553</v>
+        <v>0.006353240152477764</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hirotaka Yamada</t>
+          <t>Henrique Devens</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>339</v>
+        <v>647</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3796,37 +3796,37 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.002949852507374631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hugo Figueredo</t>
+          <t>Henry Uzochukwu</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>743</v>
+        <v>830</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3835,19 +3835,19 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.001345895020188425</v>
+        <v>0.003614457831325301</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ibrahim Cisse</t>
+          <t>Hirotaka Yamada</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3856,13 +3856,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3880,31 +3880,31 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.004739336492890996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Idris Momoh</t>
+          <t>Hugo Figueredo</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>339</v>
+        <v>837</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3919,25 +3919,25 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.005899705014749262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ignas Plūkas</t>
+          <t>Ibrahim Cisse</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -3958,31 +3958,31 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.001329787234042553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ignas Venckus</t>
+          <t>Idris Momoh</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3997,31 +3997,31 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.01091703056768559</v>
+        <v>0.005899705014749262</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Isaac Asante</t>
+          <t>Ignas Plūkas</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>510</v>
+        <v>752</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4030,34 +4030,34 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.007843137254901961</v>
+        <v>-0.001329787234042553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ivan Koškoš</t>
+          <t>Ignas Venckus</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D93" t="n">
-        <v>433</v>
+        <v>535</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -4069,70 +4069,70 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.01847575057736721</v>
+        <v>-0.007476635514018692</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jakub Wawščyk</t>
+          <t>Isaac Asante</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C94" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>522</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
-      <c r="D94" t="n">
-        <v>688</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.002906976744186046</v>
+        <v>-0.007662835249042145</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jerome Simon</t>
+          <t>Ivan Koškoš</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D95" t="n">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4147,19 +4147,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.004184100418410041</v>
+        <v>-0.01518026565464896</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jonas Usavičius</t>
+          <t>Jakub Wawščyk</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4168,16 +4168,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>194</v>
+        <v>782</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4186,31 +4186,31 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.0154639175257732</v>
+        <v>0.002557544757033248</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jonathan Mulder</t>
+          <t>Jerome Simon</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4225,31 +4225,31 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.002695417789757413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Joris Moutachy</t>
+          <t>Jonas Usavičius</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="n">
-        <v>752</v>
+        <v>224</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4264,31 +4264,31 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.002659574468085106</v>
+        <v>-0.008928571428571428</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jose Elo</t>
+          <t>Jonathan Mulder</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4303,19 +4303,19 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>0.002695417789757413</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jurij Kendyš</t>
+          <t>Joris Moutachy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4330,7 +4330,7 @@
         <v>752</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4354,19 +4354,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Justas Petravičius</t>
+          <t>Jose Elo</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4381,40 +4381,40 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.01910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Justinas Januševskij</t>
+          <t>Jurij Kendyš</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4426,25 +4426,25 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.005319148936170213</v>
+        <v>0.001182033096926714</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Justinas Juozapavičius</t>
+          <t>Justas Paštukas</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4471,19 +4471,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kajus Bička</t>
+          <t>Justas Petravičius</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D104" t="n">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4498,37 +4498,37 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-0.01910828025477707</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kajus Stankevičius</t>
+          <t>Justinas Januševskij</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D105" t="n">
-        <v>11</v>
+        <v>846</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -4537,37 +4537,37 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-0.003546099290780142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Karolis Šilkaitis</t>
+          <t>Justinas Juozapavičius</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>474</v>
+        <v>4</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4576,31 +4576,31 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.004219409282700422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Karolis Šutovičius</t>
+          <t>Kajus Bička</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4627,19 +4627,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Karolis Žebrauskas</t>
+          <t>Kajus Stankevičius</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4654,34 +4654,34 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.01204819277108434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kassim Hadji</t>
+          <t>Karolis Šilkaitis</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="n">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4693,37 +4693,37 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.002487562189054726</v>
+        <v>-0.004219409282700422</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Klaudijus Upstas</t>
+          <t>Karolis Šutovičius</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>658</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -4732,31 +4732,31 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.00303951367781155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Koen Oostenbrink</t>
+          <t>Karolis Žebrauskas</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>490</v>
+        <v>177</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -4771,37 +4771,37 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.0163265306122449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kota Sakurai</t>
+          <t>Kassim Hadji</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>610</v>
+        <v>466</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4810,37 +4810,37 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>0.004291845493562232</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Krystian Okoniewski</t>
+          <t>Klaudijus Upstas</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D113" t="n">
-        <v>293</v>
+        <v>752</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4855,25 +4855,25 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.01023890784982935</v>
+        <v>-0.002659574468085106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kwadwo Asamoah</t>
+          <t>Koen Oostenbrink</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="D114" t="n">
-        <v>181</v>
+        <v>584</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4888,34 +4888,34 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.01657458563535912</v>
+        <v>-0.0136986301369863</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Laurit Krasniqi</t>
+          <t>Kota Sakurai</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>396</v>
+        <v>704</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4927,37 +4927,37 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.0101010101010101</v>
+        <v>0.005681818181818182</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lazar Kojič</t>
+          <t>Krystian Okoniewski</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D116" t="n">
-        <v>702</v>
+        <v>293</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4966,34 +4966,34 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.004273504273504274</v>
+        <v>-0.01023890784982935</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lazar Sajčič</t>
+          <t>Kwadwo Asamoah</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D117" t="n">
-        <v>483</v>
+        <v>181</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -5011,31 +5011,31 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.008281573498964804</v>
+        <v>-0.01657458563535912</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Leif Estevez</t>
+          <t>Laurit Krasniqi</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D118" t="n">
-        <v>685</v>
+        <v>490</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -5044,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.00145985401459854</v>
+        <v>-0.006122448979591836</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Leo Ribeiro</t>
+          <t>Lazar Kojič</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5068,13 +5068,13 @@
         <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5083,37 +5083,37 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.004347826086956522</v>
+        <v>0.004273504273504274</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Linas Klimavičius</t>
+          <t>Lazar Sajčič</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -5128,31 +5128,31 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.003225806451612903</v>
+        <v>0.005484460694698354</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Linas Zingertas</t>
+          <t>Leif Estevez</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>33</v>
+        <v>779</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5161,37 +5161,37 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.0303030303030303</v>
+        <v>0.001283697047496791</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lucas de Vega</t>
+          <t>Leo Ribeiro</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>-1</v>
       </c>
       <c r="D122" t="n">
-        <v>238</v>
+        <v>778</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5200,37 +5200,37 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.004201680672268907</v>
+        <v>-0.001285347043701799</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Lucky Tom</t>
+          <t>Linas Klimavičius</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D123" t="n">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5245,28 +5245,28 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.01063829787234043</v>
+        <v>-0.003225806451612903</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lukas Ankudinovas</t>
+          <t>Linas Zingertas</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D124" t="n">
-        <v>708</v>
+        <v>64</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -5278,34 +5278,34 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0.001412429378531073</v>
+        <v>-0.015625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Machop Chol</t>
+          <t>Lucas de Vega</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -5317,76 +5317,76 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.002976190476190476</v>
+        <v>0.003787878787878788</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Maksim Andrejev</t>
+          <t>Lucky Tom</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D126" t="n">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-0.009803921568627451</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Maksym Maksymenko</t>
+          <t>Lukas Ankudinovas</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>647</v>
+        <v>802</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5395,34 +5395,34 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.01081916537867079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Maksym Pyrogov</t>
+          <t>Machop Chol</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>-1</v>
       </c>
       <c r="D128" t="n">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5440,13 +5440,13 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.002777777777777778</v>
+        <v>-0.002976190476190476</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Mantas Bertašius</t>
+          <t>Maksim Andrejev</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5455,55 +5455,55 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>752</v>
+        <v>196</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.002659574468085106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Marius Paukštė</t>
+          <t>Maksym Maksymenko</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="D130" t="n">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.002659574468085106</v>
+        <v>-0.009446693657219974</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Markas Beneta</t>
+          <t>Maksym Pyrogov</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>752</v>
+        <v>449</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5551,31 +5551,31 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.001329787234042553</v>
+        <v>0.006681514476614699</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Marko Mandič</t>
+          <t>Mantas Bertašius</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D132" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -5590,34 +5590,34 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.003989361702127659</v>
+        <v>-0.001182033096926714</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Marko Pavlovski</t>
+          <t>Marius Paukštė</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>357</v>
+        <v>846</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5629,34 +5629,34 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.002801120448179272</v>
+        <v>0.001182033096926714</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Martynas Dapkus</t>
+          <t>Markas Beneta</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>3</v>
       </c>
       <c r="D134" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5668,31 +5668,31 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.003989361702127659</v>
+        <v>0.003546099290780142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Martynas Vasiliauskas</t>
+          <t>Marko Mandič</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>96</v>
+        <v>846</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -5707,34 +5707,34 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>0.004728132387706856</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Martynas Šetkus</t>
+          <t>Marko Pavlovski</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D136" t="n">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5746,34 +5746,34 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-0.002325581395348837</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Matas Ambrazaitis</t>
+          <t>Martynas Dapkus</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
-        <v>26</v>
+        <v>752</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5785,34 +5785,34 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.003989361702127659</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Matas Ramanauskas</t>
+          <t>Martynas Vasiliauskas</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>658</v>
+        <v>110</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5824,34 +5824,34 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.004559270516717325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Meinardas Mikulėnas</t>
+          <t>Martynas Šetkus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>724</v>
+        <v>101</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -5863,76 +5863,76 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.00138121546961326</v>
+        <v>-0.009900990099009901</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Milan Džokič</t>
+          <t>Matas Ambrazaitis</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>489</v>
+        <v>26</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.00408997955010225</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Milanas Rutkovskis</t>
+          <t>Matas Ramanauskas</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D141" t="n">
-        <v>694</v>
+        <v>752</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5941,73 +5941,73 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.001440922190201729</v>
+        <v>-0.002659574468085106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Miroslav Puškarov</t>
+          <t>Meinardas Mikulėnas</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>805</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>2</v>
       </c>
-      <c r="D142" t="n">
-        <v>703</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
       <c r="J142" t="n">
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0.002844950213371266</v>
+        <v>0.001242236024844721</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Motiejus Burba</t>
+          <t>Milan Džokič</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>467</v>
+        <v>562</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -6016,34 +6016,34 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>0.005338078291814947</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Naglis Paliušis</t>
+          <t>Milanas Rutkovskis</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>434</v>
+        <v>726</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -6058,31 +6058,31 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.01382488479262673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Natanas Žebrauskas</t>
+          <t>Miroslav Puškarov</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>616</v>
+        <v>773</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -6103,25 +6103,25 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.003246753246753247</v>
+        <v>0.00129366106080207</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nauris Petkevičius</t>
+          <t>Motiejus Burba</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D146" t="n">
-        <v>646</v>
+        <v>497</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -6142,25 +6142,25 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.001547987616099071</v>
+        <v>-0.004024144869215292</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Nedas Klimavičius</t>
+          <t>Naglis Paliušis</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D147" t="n">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -6175,76 +6175,76 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-0.01382488479262673</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Nemanja Mihajlovič</t>
+          <t>Natanas Žebrauskas</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D148" t="n">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>2</v>
       </c>
-      <c r="F148" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
       <c r="J148" t="n">
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>-0.0031201248049922</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Niclas Hakansson</t>
+          <t>Nauris Petkevičius</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>335</v>
+        <v>740</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6253,31 +6253,31 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.01194029850746269</v>
+        <v>0.004054054054054054</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nidas Vosylius</t>
+          <t>Nedas Klimavičius</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -6304,25 +6304,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nikita Komissarov</t>
+          <t>Nemanja Mihajlovič</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D151" t="n">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -6337,64 +6337,64 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-0.007604562737642586</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Nikola Džorič</t>
+          <t>Niclas Hakansson</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C152" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>429</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>3</v>
       </c>
-      <c r="D152" t="n">
-        <v>752</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2</v>
-      </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.003989361702127659</v>
+        <v>0.009324009324009324</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nikoloz Čikovani</t>
+          <t>Nidas Vosylius</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -6415,28 +6415,28 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.01388888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Njoya Abdel Kader</t>
+          <t>Nikita Komissarov</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -6448,31 +6448,31 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>0.0033003300330033</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nojus Lukšys</t>
+          <t>Nikola Džorič</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>190</v>
+        <v>811</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -6487,37 +6487,37 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.005263157894736842</v>
+        <v>-0.001233045622688039</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nojus Stankevičius</t>
+          <t>Nikoloz Čikovani</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D156" t="n">
-        <v>658</v>
+        <v>381</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -6526,34 +6526,34 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.001519756838905775</v>
+        <v>-0.01312335958005249</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Nosa Edokpolor</t>
+          <t>Njoya Abdel Kader</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>752</v>
+        <v>440</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -6565,34 +6565,34 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.007978723404255319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Nouri El Harmazi</t>
+          <t>Nojus Lukšys</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D158" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -6610,31 +6610,31 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>-0.005128205128205128</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Obi Jeremiah Chinonso</t>
+          <t>Nojus Stankevičius</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>752</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -6643,37 +6643,37 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>-0.08333333333333333</v>
+        <v>0.001329787234042553</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Oleksandr Kurcev</t>
+          <t>Nosa Edokpolor</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D160" t="n">
-        <v>367</v>
+        <v>846</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -6682,31 +6682,31 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.00591016548463357</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Oleksandr Černozub</t>
+          <t>Nouri El Harmazi</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -6721,19 +6721,19 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>0.01869158878504673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Oskaras Lukošiūnas</t>
+          <t>Obi Jeremiah Chinonso</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D162" t="n">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6766,64 +6766,64 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>-0.01063829787234043</v>
+        <v>-0.08333333333333333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ovidijus Verbickas</t>
+          <t>Oleksandr Kurcev</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C163" t="n">
+        <v>5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>447</v>
+      </c>
+      <c r="E163" t="n">
         <v>2</v>
       </c>
-      <c r="D163" t="n">
-        <v>687</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1</v>
-      </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>0.002911208151382824</v>
+        <v>0.01118568232662192</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Patrick Popescu</t>
+          <t>Oleksandr Černozub</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -6838,31 +6838,31 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01574803149606299</v>
+        <v>0.01869158878504673</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Patrik Matyžonok</t>
+          <t>Oskaras Lukošiūnas</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D165" t="n">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -6883,31 +6883,31 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.02259887005649718</v>
+        <v>-0.01063829787234043</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Pavle Radunovič</t>
+          <t>Ovidijus Verbickas</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>552</v>
+        <v>781</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -6922,25 +6922,25 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>-0.001811594202898551</v>
+        <v>0.001280409731113956</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Pijus Bičkauskas</t>
+          <t>Patrick Popescu</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6967,19 +6967,19 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Pijus Srėbalius</t>
+          <t>Patrik Matyžonok</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D168" t="n">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -7000,64 +7000,64 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>-0.008403361344537815</v>
+        <v>0.02074688796680498</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Rasheed Yusuf</t>
+          <t>Pavle Radunovič</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>360</v>
+        <v>642</v>
       </c>
       <c r="E169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Renatas Banevičius</t>
+          <t>Pijus Bičkauskas</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -7078,13 +7078,13 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>-0.01501501501501501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Rokas Filipavičius</t>
+          <t>Pijus Srėbalius</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7096,13 +7096,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>501</v>
+        <v>144</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -7117,28 +7117,28 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.001996007984031936</v>
+        <v>-0.006944444444444444</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Rokas Rasimavičius</t>
+          <t>Rasheed Yusuf</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D172" t="n">
-        <v>734</v>
+        <v>406</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -7150,34 +7150,34 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>-0.004087193460490463</v>
+        <v>-0.002463054187192118</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Rokas Stanulevičius</t>
+          <t>Renatas Banevičius</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D173" t="n">
-        <v>518</v>
+        <v>333</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -7189,37 +7189,37 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>-0.007722007722007722</v>
+        <v>-0.01501501501501501</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Romualdas Jansonas</t>
+          <t>Rokas Filipavičius</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>491</v>
+        <v>578</v>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -7228,31 +7228,31 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0.01221995926680244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Roscello Vlijter</t>
+          <t>Rokas Rasimavičius</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D175" t="n">
-        <v>117</v>
+        <v>828</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -7267,19 +7267,19 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>-0.008547008547008548</v>
+        <v>-0.002415458937198068</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ryhan Stewart</t>
+          <t>Rokas Stanulevičius</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7288,13 +7288,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D176" t="n">
-        <v>252</v>
+        <v>518</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7306,37 +7306,37 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0119047619047619</v>
+        <v>-0.007722007722007722</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Salomon Kouadio</t>
+          <t>Romualdas Jansonas</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>597</v>
+        <v>552</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -7345,31 +7345,31 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Scotty Sadzoute</t>
+          <t>Roscello Vlijter</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D178" t="n">
-        <v>441</v>
+        <v>117</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -7384,37 +7384,37 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>0.002267573696145125</v>
+        <v>-0.008547008547008548</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sidas Praleika</t>
+          <t>Ryhan Stewart</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -7429,31 +7429,31 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sidy Sanokho</t>
+          <t>Salomon Kouadio</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>542</v>
+        <v>691</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -7462,31 +7462,31 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>0.001845018450184502</v>
+        <v>0.001447178002894356</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Simao Junior</t>
+          <t>Scotty Sadzoute</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>679</v>
+        <v>535</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -7501,37 +7501,37 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.002945508100147275</v>
+        <v>0.003738317757009346</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Simas Civilka</t>
+          <t>Sidas Praleika</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -7540,37 +7540,37 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Simonas Urbys</t>
+          <t>Sidy Sanokho</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D183" t="n">
-        <v>351</v>
+        <v>620</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -7585,25 +7585,25 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>0.008547008547008548</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Steve Lawson</t>
+          <t>Simao Junior</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D184" t="n">
-        <v>585</v>
+        <v>773</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -7624,25 +7624,25 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>-0.005128205128205128</v>
+        <v>-0.00129366106080207</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Strahinja Kerkez</t>
+          <t>Simas Civilka</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -7651,40 +7651,40 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>-0.01666666666666667</v>
+        <v>0.006024096385542169</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Takumi Hiruma</t>
+          <t>Simonas Urbys</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="D186" t="n">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7696,37 +7696,37 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>-0.01739130434782609</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Tautvydas Burdzilauskas</t>
+          <t>Steve Lawson</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>59</v>
+        <v>679</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -7735,31 +7735,31 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>0.001472754050073638</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Temur Čogadze</t>
+          <t>Strahinja Kerkez</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>-2</v>
       </c>
       <c r="D188" t="n">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7780,31 +7780,31 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.008510638297872341</v>
+        <v>-0.01612903225806452</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Vaidas Magdušauskas</t>
+          <t>Takumi Hiruma</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="D189" t="n">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -7819,25 +7819,25 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.005535055350553505</v>
+        <v>-0.01663201663201663</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Valdas Antužis</t>
+          <t>Tautvydas Burdzilauskas</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0.003584229390681004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Valdas Paulauskas</t>
+          <t>Temur Čogadze</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7873,10 +7873,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D191" t="n">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -7897,71 +7897,71 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0.02427184466019417</v>
+        <v>-0.008510638297872341</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Viačeslav Kulbačiuk</t>
+          <t>Thomas Basila</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>737</v>
+        <v>94</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0.002713704206241519</v>
+        <v>-0.01063829787234043</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Vilius Armalas</t>
+          <t>Vaidas Magdušauskas</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D193" t="n">
-        <v>752</v>
+        <v>611</v>
       </c>
       <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
         <v>2</v>
       </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
       <c r="G193" t="n">
         <v>0</v>
       </c>
@@ -7969,37 +7969,37 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>0.003989361702127659</v>
+        <v>-0.003273322422258593</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Vilius Armanavičius</t>
+          <t>Valdas Antužis</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -8014,31 +8014,31 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>0.005361930294906166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Vilius Piliukaitis</t>
+          <t>Valdas Paulauskas</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D195" t="n">
-        <v>516</v>
+        <v>239</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -8047,37 +8047,37 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>0.001937984496124031</v>
+        <v>0.01673640167364017</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Volodymyr Krynskij</t>
+          <t>Viačeslav Kulbačiuk</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>564</v>
+        <v>831</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -8086,73 +8086,73 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.0124113475177305</v>
+        <v>0.001203369434416366</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Vytas Gašpuitis</t>
+          <t>Vilius Armalas</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>846</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>3</v>
       </c>
-      <c r="D197" t="n">
-        <v>752</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>0.003989361702127659</v>
+        <v>-0.001182033096926714</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Vytautas Černiauskas</t>
+          <t>Vilius Armanavičius</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>752</v>
+        <v>199</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8170,31 +8170,31 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>-0.005319148936170213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Vytis Pavilonis</t>
+          <t>Vilius Piliukaitis</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>364</v>
+        <v>577</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -8203,31 +8203,31 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>-0.005494505494505495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Wesley Gabriel</t>
+          <t>Volodymyr Krynskij</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="D200" t="n">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -8242,70 +8242,70 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.008474576271186441</v>
+        <v>-0.0124113475177305</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Yanis Azouazi</t>
+          <t>Vytas Gašpuitis</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D201" t="n">
-        <v>67</v>
+        <v>846</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>-0.01492537313432836</v>
+        <v>0.004728132387706856</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Younn Zahary</t>
+          <t>Vytautas Černiauskas</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D202" t="n">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -8326,45 +8326,201 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>0.002659574468085106</v>
+        <v>-0.003546099290780142</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
+          <t>Vytis Pavilonis</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>364</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>-0.005494505494505495</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Wesley Gabriel</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D204" t="n">
+        <v>212</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-0.01415094339622642</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Yanis Azouazi</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>102</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>-0.009803921568627451</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Younn Zahary</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>846</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.001182033096926714</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>Žygimantas Baltrūnas</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Sūduva</t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="C207" t="n">
         <v>-1</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D207" t="n">
         <v>752</v>
       </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
-      <c r="K203" t="n">
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
         <v>-0.001329787234042553</v>
       </c>
     </row>

--- a/Data/Plus Minus Model/Plus Minus A Lyga 2025.xlsx
+++ b/Data/Plus Minus Model/Plus Minus A Lyga 2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K207"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="n">
-        <v>699</v>
+        <v>810</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002861230329041488</v>
+        <v>-0.001234567901234568</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +544,7 @@
         <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>816</v>
+        <v>1209</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001225490196078431</v>
+        <v>-0.0008271298593879239</v>
       </c>
     </row>
     <row r="4">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="D5" t="n">
-        <v>282</v>
+        <v>940</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01063829787234043</v>
+        <v>-0.01595744680851064</v>
       </c>
     </row>
     <row r="6">
@@ -658,14 +658,14 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>585</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>329</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00911854103343465</v>
+        <v>0.001709401709401709</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>415</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>846</v>
+        <v>1504</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00591016548463357</v>
+        <v>0.01263297872340425</v>
       </c>
     </row>
     <row r="9">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>846</v>
+        <v>1504</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.006648936170212766</v>
       </c>
     </row>
     <row r="10">
@@ -814,17 +814,17 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>692</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>195</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01300578034682081</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>284</v>
+        <v>790</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01408450704225352</v>
+        <v>0.01139240506329114</v>
       </c>
     </row>
     <row r="12">
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E12" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
-        <v>783</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.007662835249042145</v>
+        <v>0.01301684532924962</v>
       </c>
     </row>
     <row r="13">
@@ -931,16 +931,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004716981132075472</v>
+        <v>0.008928571428571428</v>
       </c>
     </row>
     <row r="14">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="D14" t="n">
-        <v>628</v>
+        <v>1087</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.007961783439490446</v>
+        <v>-0.01195952161913524</v>
       </c>
     </row>
     <row r="15">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>846</v>
+        <v>1410</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1027,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00591016548463357</v>
+        <v>0.01134751773049645</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>360</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02127659574468085</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="18">
@@ -1129,7 +1129,7 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>846</v>
+        <v>1034</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001182033096926714</v>
+        <v>-0.0009671179883945841</v>
       </c>
     </row>
     <row r="19">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="n">
-        <v>486</v>
+        <v>834</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01440329218106996</v>
+        <v>-0.002398081534772182</v>
       </c>
     </row>
     <row r="20">
@@ -1243,16 +1243,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D21" t="n">
-        <v>394</v>
+        <v>867</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1261,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.007614213197969543</v>
+        <v>-0.006920415224913495</v>
       </c>
     </row>
     <row r="22">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="D22" t="n">
-        <v>629</v>
+        <v>1184</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01112877583465819</v>
+        <v>-0.01266891891891892</v>
       </c>
     </row>
     <row r="23">
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D23" t="n">
-        <v>376</v>
+        <v>529</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1339,34 +1339,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01063829787234043</v>
+        <v>-0.0113421550094518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Augustinas Klimavičius</t>
+          <t>Artiom Šankin</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="D24" t="n">
-        <v>244</v>
+        <v>564</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1384,28 +1384,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.004098360655737705</v>
+        <v>-0.01773049645390071</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Axel Galita</t>
+          <t>Augustinas Klimavičius</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.005025125628140704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Benjamin Mulahalilovič</t>
+          <t>Axel Galita</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1438,16 +1438,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D26" t="n">
-        <v>602</v>
+        <v>230</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1456,38 +1456,38 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001661129568106312</v>
+        <v>-0.02608695652173913</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Benny Bernardo Silva</t>
+          <t>Benjamin Mulahalilovič</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="D27" t="n">
-        <v>817</v>
+        <v>1188</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
@@ -1495,34 +1495,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.006119951040391677</v>
+        <v>-0.007575757575757576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bruno Tavares</t>
+          <t>Benny Bernardo Silva</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>846</v>
+        <v>964</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1540,31 +1540,31 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001182033096926714</v>
+        <v>0.002074688796680498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carlos Duke</t>
+          <t>Bruno Tavares</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D29" t="n">
-        <v>639</v>
+        <v>1484</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1573,37 +1573,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004694835680751174</v>
+        <v>-0.001347708894878706</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cheikh Faye</t>
+          <t>Carlos Duke</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>155</v>
+        <v>1015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1612,31 +1612,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.02580645161290323</v>
+        <v>0.005911330049261084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Damjan Pavlovič</t>
+          <t>Carlos Olses</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D31" t="n">
-        <v>597</v>
+        <v>658</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1651,37 +1651,37 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.005025125628140704</v>
+        <v>-0.004559270516717325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daniel Romanovskij</t>
+          <t>Cheikh Faye</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="D32" t="n">
-        <v>659</v>
+        <v>336</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1690,38 +1690,38 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.009104704097116844</v>
+        <v>-0.02976190476190476</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Danielius Jarašius</t>
+          <t>Damjan Pavlovič</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="D33" t="n">
-        <v>317</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
@@ -1729,37 +1729,37 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.006309148264984227</v>
+        <v>0.01338432122370937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daniels Nosegbe Suško</t>
+          <t>Daniel Romanovskij</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>846</v>
+        <v>1298</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1768,37 +1768,37 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001182033096926714</v>
+        <v>0.003081664098613251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dariuš Stankevičius</t>
+          <t>Danielius Jarašius</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>546</v>
+        <v>425</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003663003663003663</v>
+        <v>0.002352941176470588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>David Martin Anane</t>
+          <t>Daniels Nosegbe Suško</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>436</v>
+        <v>1277</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1846,37 +1846,37 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.006880733944954129</v>
+        <v>0.0007830853563038371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Davor Rakič</t>
+          <t>Dariuš Stankevičius</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>509</v>
+        <v>847</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1885,38 +1885,38 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01178781925343811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Deimantas Rimpa</t>
+          <t>David Martin Anane</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>537</v>
+        <v>1018</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -1930,31 +1930,31 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.00186219739292365</v>
+        <v>0.002946954813359528</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Deitonas Vinckus</t>
+          <t>Davor Rakič</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="D39" t="n">
-        <v>480</v>
+        <v>834</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1966,34 +1966,34 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.00625</v>
+        <v>-0.013189448441247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Deividas Dovydaitis</t>
+          <t>Deimantas Rimpa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="D40" t="n">
-        <v>234</v>
+        <v>782</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2002,37 +2002,37 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01282051282051282</v>
+        <v>-0.007672634271099744</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Deividas Malžinskas</t>
+          <t>Deitonas Vinckus</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D41" t="n">
-        <v>846</v>
+        <v>709</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2041,37 +2041,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.001182033096926714</v>
+        <v>-0.004231311706629055</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Deividas Mikelionis</t>
+          <t>Deividas Dovydaitis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>846</v>
+        <v>234</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2086,28 +2086,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.00591016548463357</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dejan Georgijevič</t>
+          <t>Deividas Malžinskas</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D43" t="n">
-        <v>255</v>
+        <v>1395</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2119,31 +2119,31 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.00392156862745098</v>
+        <v>-0.002150537634408602</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dejan Trajkovski</t>
+          <t>Deividas Mikelionis</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>736</v>
+        <v>846</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2158,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.00591016548463357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Denis Ževžikovas</t>
+          <t>Deividas Šešplaukis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2197,34 +2197,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.006535947712418301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dino Salčinovič</t>
+          <t>Dejan Georgijevič</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>80</v>
+        <v>588</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2233,22 +2233,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0375</v>
+        <v>0.01020408163265306</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Divine Naah</t>
+          <t>Dejan Kerkez</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2281,28 +2281,28 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.03061224489795918</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Domantas Antanavičius</t>
+          <t>Dejan Trajkovski</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="n">
-        <v>787</v>
+        <v>1385</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2311,37 +2311,37 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.002541296060991106</v>
+        <v>-0.0007220216606498195</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Domantas Vaičekauskas</t>
+          <t>Denis Ževžikovas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="D49" t="n">
-        <v>684</v>
+        <v>920</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2359,28 +2359,28 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001461988304093567</v>
+        <v>-0.01195652173913044</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Domantas Šimkus</t>
+          <t>Dino Salčinovič</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>781</v>
+        <v>309</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2398,25 +2398,25 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.005121638924455826</v>
+        <v>0.009708737864077669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Domas Slendzoka</t>
+          <t>Divine Naah</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2431,34 +2431,34 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.0179372197309417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dominyk Kodz</t>
+          <t>Domantas Antanavičius</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D52" t="n">
-        <v>179</v>
+        <v>1315</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.01675977653631285</v>
+        <v>-0.0007604562737642585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dominykas Kubilinskas</t>
+          <t>Domantas Vaičekauskas</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>46</v>
+        <v>1091</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2509,34 +2509,34 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.02173913043478261</v>
+        <v>0.003666361136571952</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dominykas Pudžemys</t>
+          <t>Domantas Šimkus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>1082</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Donatas Kazlauskas</t>
+          <t>Domas Slendzoka</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Dovydas Balsys</t>
+          <t>Dominyk Kodz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D56" t="n">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2632,25 +2632,25 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.04545454545454546</v>
+        <v>-0.01834862385321101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dovydas Norvilas</t>
+          <t>Dominykas Kubilinskas</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
       </c>
       <c r="D57" t="n">
-        <v>750</v>
+        <v>386</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2659,43 +2659,43 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.002666666666666667</v>
+        <v>-0.005181347150259068</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ebenezer Ofori</t>
+          <t>Dominykas Pudžemys</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>282</v>
+        <v>89</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2704,37 +2704,37 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.01123595505617977</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eduardas Jurjonas</t>
+          <t>Donatas Kazlauskas</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>666</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2743,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.09090909090909091</v>
+        <v>0.004504504504504504</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Edvinas Puikis</t>
+          <t>Dovydas Balsys</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Eimantas Dzinga</t>
+          <t>Dovydas Norvilas</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="n">
-        <v>199</v>
+        <v>989</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2815,43 +2815,43 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.01005025125628141</v>
+        <v>-0.003033367037411527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Eligijus Jankauskas</t>
+          <t>Ebenezer Ofori</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="n">
-        <v>606</v>
+        <v>940</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2866,31 +2866,31 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.00825082508250825</v>
+        <v>-0.002127659574468085</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Elivelto Ribeiro Dantas</t>
+          <t>Edgaras Bierontas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2899,19 +2899,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02272727272727273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ernestas Burdzilauskas</t>
+          <t>Eduardas Jurjonas</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2920,10 +2920,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2944,25 +2944,25 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.02583979328165375</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ernestas Stočkūnas</t>
+          <t>Edvinas Puikis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>782</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.01023017902813299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ernestas Veliulis</t>
+          <t>Eimantas Dzinga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2998,16 +2998,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D66" t="n">
-        <v>454</v>
+        <v>207</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3022,29 +3022,29 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.00881057268722467</v>
+        <v>-0.004830917874396135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ernestas Zdanovič</t>
+          <t>Eligijus Jankauskas</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
+        <v>750</v>
+      </c>
+      <c r="E67" t="n">
         <v>4</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
@@ -3055,37 +3055,37 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.009333333333333334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Esmilis Kaušinis</t>
+          <t>Elivelto Ribeiro Dantas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>413</v>
+        <v>309</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3094,19 +3094,19 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.004842615012106538</v>
+        <v>0.01941747572815534</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fabien Ourega</t>
+          <t>Ernestas Burdzilauskas</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3139,31 +3139,31 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.004484304932735426</v>
+        <v>0.01724137931034483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Faustas Steponavičius</t>
+          <t>Ernestas Stočkūnas</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="D70" t="n">
-        <v>581</v>
+        <v>1336</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3172,37 +3172,37 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.006884681583476764</v>
+        <v>-0.01272455089820359</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fedor Černych</t>
+          <t>Ernestas Veliulis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="D71" t="n">
-        <v>660</v>
+        <v>837</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3211,31 +3211,31 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.00909090909090909</v>
+        <v>-0.003584229390681004</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Fraj Kayramani</t>
+          <t>Ernestas Zdanovič</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3250,37 +3250,37 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.002724795640326975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Francis Eusebio Mbaki</t>
+          <t>Esmilis Kaušinis</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>121</v>
+        <v>603</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3289,37 +3289,37 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.008264462809917356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Frankline Tangiri</t>
+          <t>Fabien Ourega</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>127</v>
+        <v>1002</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3328,37 +3328,37 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.03149606299212598</v>
+        <v>0.01497005988023952</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gabrielius Micevičius</t>
+          <t>Faustas Steponavičius</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>578</v>
+        <v>899</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3367,37 +3367,37 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.001730103806228374</v>
+        <v>0.003337041156840935</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Garissone Innocent</t>
+          <t>Fedor Černych</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>846</v>
+        <v>786</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3406,37 +3406,37 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.001182033096926714</v>
+        <v>0.01145038167938931</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Giedrius Matulevičius</t>
+          <t>Fraj Kayramani</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D77" t="n">
-        <v>261</v>
+        <v>864</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3445,31 +3445,31 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.007662835249042145</v>
+        <v>-0.003472222222222222</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Giedrius Zenkevičius</t>
+          <t>Francis Eusebio Mbaki</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D78" t="n">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3490,31 +3490,31 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0425531914893617</v>
+        <v>-0.007092198581560284</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gratas Sirgėdas</t>
+          <t>Frankline Tangiri</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>780</v>
+        <v>718</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3523,19 +3523,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.00641025641025641</v>
+        <v>0.01532033426183844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gustas Baliutavičius</t>
+          <t>Gabrielius Micevičius</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3544,37 +3544,37 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1126</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>4</v>
       </c>
-      <c r="D80" t="n">
-        <v>846</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.004728132387706856</v>
+        <v>-0.001776198934280639</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Gustas Gumbaravičius</t>
+          <t>Garissone Innocent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3586,7 +3586,7 @@
         <v>-1</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>940</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3595,25 +3595,25 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.001063829787234043</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gustas Jarusevičius</t>
+          <t>Giedrius Matulevičius</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D82" t="n">
-        <v>355</v>
+        <v>591</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3646,31 +3646,31 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01126760563380282</v>
+        <v>-0.001692047377326565</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gustas Zabita</t>
+          <t>Giedrius Zenkevičius</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>658</v>
+        <v>505</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3685,31 +3685,31 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.0121580547112462</v>
+        <v>0.01386138613861386</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Harouna Abdoul Samad</t>
+          <t>Gratas Sirgėdas</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>35</v>
+        <v>1335</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3718,34 +3718,34 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.01273408239700374</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Haymenn Bah-Traore</t>
+          <t>Gustas Baliutavičius</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>787</v>
+        <v>1504</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3757,34 +3757,34 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.006353240152477764</v>
+        <v>0.001329787234042553</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Henrique Devens</t>
+          <t>Gustas Geštautas</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>647</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3808,25 +3808,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Henry Uzochukwu</t>
+          <t>Gustas Gumbaravičius</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D87" t="n">
-        <v>830</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3841,31 +3841,31 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.003614457831325301</v>
+        <v>-0.09090909090909091</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hirotaka Yamada</t>
+          <t>Gustas Jarusevičius</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>400</v>
+        <v>554</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>0.001805054151624549</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hugo Figueredo</t>
+          <t>Gustas Zabita</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D89" t="n">
-        <v>837</v>
+        <v>1239</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3913,31 +3913,31 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-0.01614205004035512</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ibrahim Cisse</t>
+          <t>Harouna Abdoul Samad</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -3952,31 +3952,31 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Idris Momoh</t>
+          <t>Haymenn Bah-Traore</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>339</v>
+        <v>1257</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -3991,37 +3991,37 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.005899705014749262</v>
+        <v>0.01193317422434368</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ignas Plūkas</t>
+          <t>Henrique Devens</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D92" t="n">
-        <v>752</v>
+        <v>1115</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4030,37 +4030,37 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.001329787234042553</v>
+        <v>-0.00179372197309417</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ignas Venckus</t>
+          <t>Henry Uzochukwu</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>535</v>
+        <v>1196</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4069,37 +4069,37 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.007476635514018692</v>
+        <v>0.006688963210702341</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Isaac Asante</t>
+          <t>Hirotaka Yamada</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4108,34 +4108,34 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.007662835249042145</v>
+        <v>0.001953125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ivan Koškoš</t>
+          <t>Hugo Figueredo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D95" t="n">
-        <v>527</v>
+        <v>1468</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4153,31 +4153,31 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.01518026565464896</v>
+        <v>-0.002043596730245231</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jakub Wawščyk</t>
+          <t>Ibrahim Cisse</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>782</v>
+        <v>917</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4186,37 +4186,37 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.002557544757033248</v>
+        <v>-0.00109051254089422</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jerome Simon</t>
+          <t>Idris Momoh</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4231,25 +4231,25 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jonas Usavičius</t>
+          <t>Ignas Plūkas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>224</v>
+        <v>999</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4264,34 +4264,34 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.008928571428571428</v>
+        <v>0.003003003003003003</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jonathan Mulder</t>
+          <t>Ignas Venckus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D99" t="n">
-        <v>371</v>
+        <v>1148</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4303,37 +4303,37 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.002695417789757413</v>
+        <v>-0.004355400696864111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Joris Moutachy</t>
+          <t>Isaac Asante</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>795</v>
+      </c>
+      <c r="E100" t="n">
         <v>2</v>
       </c>
-      <c r="D100" t="n">
-        <v>752</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4342,31 +4342,31 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.002659574468085106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jose Elo</t>
+          <t>Ivan Koškoš</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D101" t="n">
-        <v>85</v>
+        <v>1032</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4381,70 +4381,70 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-0.01453488372093023</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jurij Kendyš</t>
+          <t>Jakub Wawščyk</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D102" t="n">
-        <v>846</v>
+        <v>1119</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.001182033096926714</v>
+        <v>-0.004468275245755138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Justas Paštukas</t>
+          <t>Jerome Simon</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>513</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4465,25 +4465,25 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>0.001949317738791423</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Justas Petravičius</t>
+          <t>Jonas Usavičius</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D104" t="n">
-        <v>157</v>
+        <v>316</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4504,28 +4504,28 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.01910828025477707</v>
+        <v>-0.01582278481012658</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Justinas Januševskij</t>
+          <t>Jonathan Mulder</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>846</v>
+        <v>747</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4537,37 +4537,37 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.003546099290780142</v>
+        <v>0.00535475234270415</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Justinas Juozapavičius</t>
+          <t>Joris Moutachy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>1410</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4576,31 +4576,31 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-0.0007092198581560284</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kajus Bička</t>
+          <t>Jose Elo</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D107" t="n">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -4615,31 +4615,31 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-0.01027397260273973</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kajus Stankevičius</t>
+          <t>Juozas Radavičius</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4666,58 +4666,58 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Karolis Šilkaitis</t>
+          <t>Jurij Kendyš</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>-2</v>
       </c>
       <c r="D109" t="n">
-        <v>474</v>
+        <v>1492</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.004219409282700422</v>
+        <v>-0.001340482573726542</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Karolis Šutovičius</t>
+          <t>Justas Paštukas</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Karolis Žebrauskas</t>
+          <t>Justas Petravičius</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D111" t="n">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -4777,25 +4777,25 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-0.008130081300813009</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kassim Hadji</t>
+          <t>Justinas Januševskij</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>466</v>
+        <v>1297</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -4810,37 +4810,37 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.004291845493562232</v>
+        <v>0.003084040092521203</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Klaudijus Upstas</t>
+          <t>Justinas Juozapavičius</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>752</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4849,37 +4849,37 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.002659574468085106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Koen Oostenbrink</t>
+          <t>Kajus Bička</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>584</v>
+        <v>323</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -4888,34 +4888,34 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.0136986301369863</v>
+        <v>0.003095975232198143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kota Sakurai</t>
+          <t>Kajus Stankevičius</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>704</v>
+        <v>11</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4927,31 +4927,31 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.005681818181818182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Krystian Okoniewski</t>
+          <t>Karolis Toleikis</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D116" t="n">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4972,31 +4972,31 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.01023890784982935</v>
+        <v>-0.01923076923076923</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kwadwo Asamoah</t>
+          <t>Karolis Šilkaitis</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D117" t="n">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -5005,31 +5005,31 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.01657458563535912</v>
+        <v>-0.003831417624521073</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Laurit Krasniqi</t>
+          <t>Karolis Šutovičius</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>490</v>
+        <v>13</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5050,31 +5050,31 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.006122448979591836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lazar Kojič</t>
+          <t>Karolis Žebrauskas</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D119" t="n">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5083,37 +5083,37 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.004273504273504274</v>
+        <v>-0.004048582995951417</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lazar Sajčič</t>
+          <t>Kassim Hadji</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D120" t="n">
-        <v>547</v>
+        <v>711</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -5128,31 +5128,31 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.005484460694698354</v>
+        <v>-0.001406469760900141</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Leif Estevez</t>
+          <t>Kevin Lukaševič</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>779</v>
+        <v>27</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>0.001283697047496791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Leo Ribeiro</t>
+          <t>Klaudijus Upstas</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5182,16 +5182,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>778</v>
+        <v>1316</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5206,31 +5206,31 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.001285347043701799</v>
+        <v>0.003799392097264438</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Linas Klimavičius</t>
+          <t>Koen Oostenbrink</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-1</v>
+        <v>-16</v>
       </c>
       <c r="D123" t="n">
-        <v>310</v>
+        <v>1148</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.003225806451612903</v>
+        <v>-0.01393728222996516</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Linas Zingertas</t>
+          <t>Kota Sakurai</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>64</v>
+        <v>1316</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -5278,34 +5278,34 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.015625</v>
+        <v>0.006838905775075988</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lucas de Vega</t>
+          <t>Krystian Okoniewski</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="D125" t="n">
-        <v>264</v>
+        <v>866</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -5317,31 +5317,31 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.003787878787878788</v>
+        <v>-0.01270207852193995</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lucky Tom</t>
+          <t>Kwadwo Asamoah</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>-2</v>
       </c>
       <c r="D126" t="n">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5356,31 +5356,31 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>-0.009803921568627451</v>
+        <v>-0.006060606060606061</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lukas Ankudinovas</t>
+          <t>Laurit Krasniqi</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>802</v>
+        <v>1050</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -5395,37 +5395,37 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>0.00380952380952381</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Machop Chol</t>
+          <t>Lazar Kojič</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>336</v>
+        <v>1253</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -5434,76 +5434,76 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.002976190476190476</v>
+        <v>0.003990422984836393</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Maksim Andrejev</t>
+          <t>Lazar Sajčič</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D129" t="n">
-        <v>196</v>
+        <v>985</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-0.006091370558375634</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Maksym Maksymenko</t>
+          <t>Leif Estevez</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="D130" t="n">
-        <v>741</v>
+        <v>1343</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -5512,37 +5512,37 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.009446693657219974</v>
+        <v>-0.007446016381236039</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Maksym Pyrogov</t>
+          <t>Leo Ribeiro</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>449</v>
+        <v>1418</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -5551,37 +5551,37 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.006681514476614699</v>
+        <v>0.002115655853314528</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Mantas Bertašius</t>
+          <t>Linas Klimavičius</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D132" t="n">
-        <v>846</v>
+        <v>404</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -5596,25 +5596,25 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.001182033096926714</v>
+        <v>-0.004950495049504951</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Marius Paukštė</t>
+          <t>Linas Zingertas</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>846</v>
+        <v>367</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -5629,34 +5629,34 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0.001182033096926714</v>
+        <v>0.005449591280653951</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Markas Beneta</t>
+          <t>Lucas de Vega</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="n">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5668,37 +5668,37 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.004790419161676647</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Marko Mandič</t>
+          <t>Lucky Tom</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>846</v>
+        <v>519</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -5707,31 +5707,31 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.004728132387706856</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Marko Pavlovski</t>
+          <t>Lukas Ankudinovas</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D136" t="n">
-        <v>430</v>
+        <v>1215</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -5746,34 +5746,34 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.002325581395348837</v>
+        <v>-0.001646090534979424</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Martynas Dapkus</t>
+          <t>Lukas Šiaudvytis</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>752</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5785,34 +5785,34 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.003989361702127659</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Martynas Vasiliauskas</t>
+          <t>Machop Chol</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="n">
-        <v>110</v>
+        <v>501</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5830,109 +5830,109 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>-0.003992015968063872</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Martynas Šetkus</t>
+          <t>Maksim Andrejev</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D139" t="n">
-        <v>101</v>
+        <v>516</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.009900990099009901</v>
+        <v>-0.009689922480620155</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Matas Ambrazaitis</t>
+          <t>Maksym Maksymenko</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="D140" t="n">
-        <v>26</v>
+        <v>1286</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.03846153846153846</v>
+        <v>-0.01244167962674961</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Matas Ramanauskas</t>
+          <t>Maksym Pyrogov</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>752</v>
+        <v>449</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5941,37 +5941,37 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.002659574468085106</v>
+        <v>0.006681514476614699</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Meinardas Mikulėnas</t>
+          <t>Mantas Bertašius</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D142" t="n">
-        <v>805</v>
+        <v>1504</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -5980,70 +5980,70 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0.001242236024844721</v>
+        <v>-0.00199468085106383</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Milan Džokič</t>
+          <t>Marius Paukštė</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>562</v>
+        <v>1504</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.005338078291814947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Milanas Rutkovskis</t>
+          <t>Markas Beneta</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>726</v>
+        <v>1157</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -6058,31 +6058,31 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>0.002592912705272256</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Miroslav Puškarov</t>
+          <t>Marko Mandič</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>773</v>
+        <v>1406</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -6097,37 +6097,37 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.00129366106080207</v>
+        <v>0.003556187766714083</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Motiejus Burba</t>
+          <t>Marko Pavlovski</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="D146" t="n">
-        <v>497</v>
+        <v>866</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -6136,34 +6136,34 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.004024144869215292</v>
+        <v>-0.01039260969976905</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Naglis Paliušis</t>
+          <t>Martynas Dapkus</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
-        <v>434</v>
+        <v>945</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -6175,31 +6175,31 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.01382488479262673</v>
+        <v>0.003174603174603175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Natanas Žebrauskas</t>
+          <t>Martynas Vasiliauskas</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>641</v>
+        <v>150</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -6214,37 +6214,37 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.0031201248049922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Nauris Petkevičius</t>
+          <t>Martynas Šetkus</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D149" t="n">
-        <v>740</v>
+        <v>307</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6259,25 +6259,25 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.004054054054054054</v>
+        <v>-0.006514657980456026</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nedas Klimavičius</t>
+          <t>Matas Ambrazaitis</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -6298,31 +6298,31 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>0.01777777777777778</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nemanja Mihajlovič</t>
+          <t>Matas Latvys</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -6331,37 +6331,37 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.007604562737642586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Niclas Hakansson</t>
+          <t>Matas Ramanauskas</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D152" t="n">
-        <v>429</v>
+        <v>1410</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -6370,37 +6370,37 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.009324009324009324</v>
+        <v>-0.002836879432624114</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nidas Vosylius</t>
+          <t>Meinardas Mikulėnas</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D153" t="n">
-        <v>16</v>
+        <v>1344</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -6409,19 +6409,19 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-0.006696428571428571</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nikita Komissarov</t>
+          <t>Milan Džokič</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6430,22 +6430,22 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>303</v>
+        <v>1107</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -6454,28 +6454,28 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0033003300330033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nikola Džorič</t>
+          <t>Milanas Rutkovskis</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="D155" t="n">
-        <v>811</v>
+        <v>1270</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -6487,31 +6487,31 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.001233045622688039</v>
+        <v>-0.01023622047244094</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nikoloz Čikovani</t>
+          <t>Miroslav Puškarov</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>381</v>
+        <v>1431</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6526,34 +6526,34 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.01312335958005249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Njoya Abdel Kader</t>
+          <t>Mohamed Youla</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -6577,25 +6577,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Nojus Lukšys</t>
+          <t>Motiejus Burba</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D158" t="n">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -6604,70 +6604,70 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.005128205128205128</v>
+        <v>-0.004024144869215292</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Nojus Stankevičius</t>
+          <t>Naglis Paliušis</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="D159" t="n">
-        <v>752</v>
+        <v>798</v>
       </c>
       <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="F159" t="n">
-        <v>2</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4</v>
-      </c>
       <c r="J159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.001329787234042553</v>
+        <v>-0.01503759398496241</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Nosa Edokpolor</t>
+          <t>Natanas Žebrauskas</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="D160" t="n">
-        <v>846</v>
+        <v>784</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -6682,37 +6682,37 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.00591016548463357</v>
+        <v>-0.00510204081632653</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Nouri El Harmazi</t>
+          <t>Nauris Petkevičius</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D161" t="n">
-        <v>192</v>
+        <v>1385</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -6721,31 +6721,31 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>0.007220216606498195</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Obi Jeremiah Chinonso</t>
+          <t>Nedas Klimavičius</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6766,31 +6766,31 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>-0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Oleksandr Kurcev</t>
+          <t>Nelson Abiam</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>447</v>
+        <v>188</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -6799,37 +6799,37 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>0.01118568232662192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Oleksandr Černozub</t>
+          <t>Nemanja Mihajlovič</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D164" t="n">
-        <v>107</v>
+        <v>518</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01869158878504673</v>
+        <v>-0.003861003861003861</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Oskaras Lukošiūnas</t>
+          <t>Niclas Hakansson</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D165" t="n">
-        <v>376</v>
+        <v>751</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -6877,34 +6877,34 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>-0.01063829787234043</v>
+        <v>-0.006657789613848202</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ovidijus Verbickas</t>
+          <t>Nidas Vosylius</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D166" t="n">
-        <v>781</v>
+        <v>53</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6913,37 +6913,37 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>0.001280409731113956</v>
+        <v>-0.01886792452830189</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Patrick Popescu</t>
+          <t>Nikita Komissarov</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D167" t="n">
-        <v>300</v>
+        <v>561</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6955,31 +6955,31 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-0.0017825311942959</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Patrik Matyžonok</t>
+          <t>Nikola Džorič</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>241</v>
+        <v>1375</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -6994,34 +6994,34 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.02074688796680498</v>
+        <v>0.0007272727272727272</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Pavle Radunovič</t>
+          <t>Nikoloz Čikovani</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D169" t="n">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7030,37 +7030,37 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>-0.01639344262295082</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pijus Bičkauskas</t>
+          <t>Njoya Abdel Kader</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>33</v>
+        <v>886</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -7078,25 +7078,25 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>0.002257336343115124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Pijus Srėbalius</t>
+          <t>Nojus Lukšys</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -7111,76 +7111,76 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.006944444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Rasheed Yusuf</t>
+          <t>Nojus Stankevičius</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D172" t="n">
-        <v>406</v>
+        <v>1273</v>
       </c>
       <c r="E172" t="n">
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>-0.002463054187192118</v>
+        <v>-0.007855459544383346</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Renatas Banevičius</t>
+          <t>Nosa Edokpolor</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="D173" t="n">
-        <v>333</v>
+        <v>1316</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -7189,19 +7189,19 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>-0.01501501501501501</v>
+        <v>0.00911854103343465</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Rokas Filipavičius</t>
+          <t>Nouri El Harmazi</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7210,16 +7210,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>578</v>
+        <v>212</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -7228,31 +7228,31 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>0.004716981132075472</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Rokas Rasimavičius</t>
+          <t>Obi Jeremiah Chinonso</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>-2</v>
       </c>
       <c r="D175" t="n">
-        <v>828</v>
+        <v>58</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -7267,37 +7267,37 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>-0.002415458937198068</v>
+        <v>-0.03448275862068965</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rokas Stanulevičius</t>
+          <t>Oleksandr Kurcev</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D176" t="n">
-        <v>518</v>
+        <v>866</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -7306,37 +7306,37 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>-0.007722007722007722</v>
+        <v>0.005773672055427252</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Romualdas Jansonas</t>
+          <t>Oleksandr Černozub</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>552</v>
+        <v>114</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -7345,31 +7345,31 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Roscello Vlijter</t>
+          <t>Oskaras Lukošiūnas</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D178" t="n">
-        <v>117</v>
+        <v>590</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -7384,70 +7384,70 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.008547008547008548</v>
+        <v>-0.01694915254237288</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ryhan Stewart</t>
+          <t>Ovidijus Verbickas</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C179" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1439</v>
+      </c>
+      <c r="E179" t="n">
         <v>2</v>
       </c>
-      <c r="D179" t="n">
-        <v>298</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.006711409395973154</v>
+        <v>-0.001389854065323141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Salomon Kouadio</t>
+          <t>Patrick Popescu</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -7462,34 +7462,34 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>0.001447178002894356</v>
+        <v>0.007225433526011561</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Scotty Sadzoute</t>
+          <t>Patrik Matyžonok</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D181" t="n">
-        <v>535</v>
+        <v>416</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7507,52 +7507,52 @@
         <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>0.003738317757009346</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sidas Praleika</t>
+          <t>Pavle Radunovič</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>30</v>
+        <v>1177</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.005097706032285472</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sidy Sanokho</t>
+          <t>Pijus Bičkauskas</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7561,16 +7561,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>620</v>
+        <v>39</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -7579,19 +7579,19 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>0.008064516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Simao Junior</t>
+          <t>Pijus Srėbalius</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7600,13 +7600,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D184" t="n">
-        <v>773</v>
+        <v>536</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7618,37 +7618,37 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>-0.00129366106080207</v>
+        <v>-0.005597014925373134</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Simas Civilka</t>
+          <t>Rasheed Yusuf</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>166</v>
+        <v>618</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -7657,34 +7657,34 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.001618122977346278</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Simonas Urbys</t>
+          <t>Renatas Banevičius</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="D186" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7702,31 +7702,31 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0078125</v>
+        <v>-0.02133333333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Steve Lawson</t>
+          <t>Rokas Filipavičius</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -7735,19 +7735,19 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0.001472754050073638</v>
+        <v>0.001508295625942685</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Strahinja Kerkez</t>
+          <t>Rokas Rasimavičius</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7756,10 +7756,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D188" t="n">
-        <v>124</v>
+        <v>1486</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -7768,40 +7768,40 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.01612903225806452</v>
+        <v>0.003364737550471063</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Takumi Hiruma</t>
+          <t>Rokas Stanulevičius</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D189" t="n">
-        <v>481</v>
+        <v>948</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7813,19 +7813,19 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.01663201663201663</v>
+        <v>-0.00949367088607595</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Tautvydas Burdzilauskas</t>
+          <t>Romualdas Jansonas</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7834,16 +7834,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D190" t="n">
-        <v>59</v>
+        <v>856</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -7852,31 +7852,31 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>0.01635514018691589</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Temur Čogadze</t>
+          <t>Roscello Vlijter</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D191" t="n">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -7891,40 +7891,40 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>-0.008510638297872341</v>
+        <v>-0.008547008547008548</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Thomas Basila</t>
+          <t>Ryhan Stewart</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>94</v>
+        <v>607</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7936,31 +7936,31 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>-0.01063829787234043</v>
+        <v>0.003294892915980231</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Vaidas Magdušauskas</t>
+          <t>Salomon Kouadio</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>611</v>
+        <v>1251</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -7975,32 +7975,32 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>-0.003273322422258593</v>
+        <v>0.006394884092725819</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Valdas Antužis</t>
+          <t>Scotty Sadzoute</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1123</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
         <v>2</v>
       </c>
-      <c r="D194" t="n">
-        <v>373</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1</v>
-      </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
@@ -8014,31 +8014,31 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>0.005361930294906166</v>
+        <v>0.0008904719501335708</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Valdas Paulauskas</t>
+          <t>Sidas Praleika</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D195" t="n">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -8053,31 +8053,31 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>0.01673640167364017</v>
+        <v>-0.0108695652173913</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Viačeslav Kulbačiuk</t>
+          <t>Sidy Sanokho</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D196" t="n">
-        <v>831</v>
+        <v>933</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -8086,76 +8086,76 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.001203369434416366</v>
+        <v>0.007502679528403001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Vilius Armalas</t>
+          <t>Simao Junior</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>846</v>
+        <v>1337</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>-0.001182033096926714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Vilius Armanavičius</t>
+          <t>Simas Civilka</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>199</v>
+        <v>481</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Vilius Piliukaitis</t>
+          <t>Simonas Urbys</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8185,16 +8185,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D199" t="n">
-        <v>577</v>
+        <v>814</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -8203,34 +8203,34 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>0.003685503685503686</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Volodymyr Krynskij</t>
+          <t>Steve Lawson</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>564</v>
+        <v>961</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -8242,31 +8242,31 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>-0.0124113475177305</v>
+        <v>0.005202913631633715</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Vytas Gašpuitis</t>
+          <t>Strahinja Kerkez</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
-        <v>846</v>
+        <v>594</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -8281,31 +8281,31 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>0.004728132387706856</v>
+        <v>0.008417508417508417</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vytautas Černiauskas</t>
+          <t>Takumi Hiruma</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="D202" t="n">
-        <v>846</v>
+        <v>506</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -8326,25 +8326,25 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>-0.003546099290780142</v>
+        <v>-0.01976284584980237</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Vytis Pavilonis</t>
+          <t>Tautvydas Alekna</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>-2</v>
       </c>
       <c r="D203" t="n">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -8365,31 +8365,31 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>-0.005494505494505495</v>
+        <v>-0.02352941176470588</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Wesley Gabriel</t>
+          <t>Tautvydas Burdzilauskas</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -8398,37 +8398,37 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>-0.01415094339622642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Yanis Azouazi</t>
+          <t>Temur Čogadze</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D205" t="n">
-        <v>102</v>
+        <v>643</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -8443,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>-0.009803921568627451</v>
+        <v>0.01088646967340591</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Younn Zahary</t>
+          <t>Thomas Basila</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -8458,10 +8458,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D206" t="n">
-        <v>846</v>
+        <v>347</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8479,49 +8479,712 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>0.001182033096926714</v>
+        <v>-0.008645533141210375</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>Tomas Gumbelevičius</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Sūduva</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>28</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Tomas Švedkauskas</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>14</v>
+      </c>
+      <c r="D208" t="n">
+        <v>658</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.02127659574468085</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Vaidas Magdušauskas</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Banga</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>984</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Valdas Antužis</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Banga</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Valdas Paulauskas</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>457</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.01312910284463895</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Viačeslav Kulbačiuk</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1331</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>5</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.0007513148009015778</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Vilius Armalas</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>4</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>4</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.003021148036253776</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Vilius Armanavičius</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>312</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Vilius Piliukaitis</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D215" t="n">
+        <v>920</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>-0.002173913043478261</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Vincentas Šarkauskas</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>470</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0.008510638297872341</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Volodymyr Krynskij</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>564</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>-0.0124113475177305</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Vytas Gašpuitis</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Šiauliai</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1504</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.001329787234042553</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Vytautas Černiauskas</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Panevėžys</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1504</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.002659574468085106</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Vytis Pavilonis</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>646</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-0.007739938080495356</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Wesley Gabriel</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>600</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>-0.001666666666666667</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Yanis Azouazi</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>136</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-0.02205882352941177</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Younn Zahary</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>940</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-0.001063829787234043</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
           <t>Žygimantas Baltrūnas</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Sūduva</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>752</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
-      <c r="K207" t="n">
-        <v>-0.001329787234042553</v>
+      <c r="C224" t="n">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.004484304932735426</v>
       </c>
     </row>
   </sheetData>
